--- a/Code/Results/Cases/Case_0_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.12420709581694</v>
+        <v>12.92687315769199</v>
       </c>
       <c r="D2">
-        <v>3.686017207862993</v>
+        <v>6.219344393504453</v>
       </c>
       <c r="E2">
-        <v>7.666408052126869</v>
+        <v>13.15998055045497</v>
       </c>
       <c r="F2">
-        <v>33.73236290189003</v>
+        <v>49.3025153564332</v>
       </c>
       <c r="G2">
-        <v>45.01680116021841</v>
+        <v>62.0259216775334</v>
       </c>
       <c r="H2">
-        <v>14.25271870316763</v>
+        <v>22.63425151667966</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.388328130167566</v>
+        <v>11.20221831876756</v>
       </c>
       <c r="K2">
-        <v>20.29713684394785</v>
+        <v>20.44810689891228</v>
       </c>
       <c r="L2">
-        <v>5.175633904516461</v>
+        <v>9.170871096079406</v>
       </c>
       <c r="M2">
-        <v>16.34532895516896</v>
+        <v>21.5259513024024</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.86059650438561</v>
+        <v>12.91598200217053</v>
       </c>
       <c r="D3">
-        <v>3.573904708164623</v>
+        <v>6.206201455712169</v>
       </c>
       <c r="E3">
-        <v>7.648146288214526</v>
+        <v>13.18292983078363</v>
       </c>
       <c r="F3">
-        <v>33.36272541284582</v>
+        <v>49.42237644100456</v>
       </c>
       <c r="G3">
-        <v>44.34774754107234</v>
+        <v>62.16784841183699</v>
       </c>
       <c r="H3">
-        <v>14.26738445079678</v>
+        <v>22.70916845062349</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.45321069350175</v>
+        <v>11.23125199178867</v>
       </c>
       <c r="K3">
-        <v>19.0575090183508</v>
+        <v>20.15897159095709</v>
       </c>
       <c r="L3">
-        <v>5.203368610996544</v>
+        <v>9.182789173972527</v>
       </c>
       <c r="M3">
-        <v>15.61510276310898</v>
+        <v>21.42713859593472</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.701107625003008</v>
+        <v>12.91179531136909</v>
       </c>
       <c r="D4">
-        <v>3.504037126472914</v>
+        <v>6.198470491780769</v>
       </c>
       <c r="E4">
-        <v>7.640168112895298</v>
+        <v>13.19851721582488</v>
       </c>
       <c r="F4">
-        <v>33.16998782858146</v>
+        <v>49.50796873855926</v>
       </c>
       <c r="G4">
-        <v>43.98979569485634</v>
+        <v>62.27293307335501</v>
       </c>
       <c r="H4">
-        <v>14.28923783651859</v>
+        <v>22.75960943153644</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.495061137000039</v>
+        <v>11.25016045828546</v>
       </c>
       <c r="K4">
-        <v>18.26364268315855</v>
+        <v>19.9831549704892</v>
       </c>
       <c r="L4">
-        <v>5.221049104193038</v>
+        <v>9.190525006187491</v>
       </c>
       <c r="M4">
-        <v>15.1572996208428</v>
+        <v>21.36974495790199</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.636773143595677</v>
+        <v>12.91071947203517</v>
       </c>
       <c r="D5">
-        <v>3.47533334733049</v>
+        <v>6.195406709469755</v>
       </c>
       <c r="E5">
-        <v>7.637712037325778</v>
+        <v>13.20524585126817</v>
       </c>
       <c r="F5">
-        <v>33.09974490872911</v>
+        <v>49.54585357889801</v>
       </c>
       <c r="G5">
-        <v>43.85677381561287</v>
+        <v>62.32024432317533</v>
       </c>
       <c r="H5">
-        <v>14.30121675382509</v>
+        <v>22.78127884525524</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.512618558160058</v>
+        <v>11.25813837983579</v>
       </c>
       <c r="K5">
-        <v>17.93207127658217</v>
+        <v>19.91202266055362</v>
       </c>
       <c r="L5">
-        <v>5.228421147048846</v>
+        <v>9.193782891605318</v>
       </c>
       <c r="M5">
-        <v>14.96858923786591</v>
+        <v>21.34719732465772</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.626132121161811</v>
+        <v>12.91057893284833</v>
       </c>
       <c r="D6">
-        <v>3.470553929099882</v>
+        <v>6.194903245520501</v>
       </c>
       <c r="E6">
-        <v>7.63735170007226</v>
+        <v>13.20638589505507</v>
       </c>
       <c r="F6">
-        <v>33.08857316079301</v>
+        <v>49.55232549116852</v>
       </c>
       <c r="G6">
-        <v>43.8354478981374</v>
+        <v>62.32837070574784</v>
       </c>
       <c r="H6">
-        <v>14.30338696580104</v>
+        <v>22.78494425967722</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.515564259286215</v>
+        <v>11.25947958694979</v>
       </c>
       <c r="K6">
-        <v>17.87653302100549</v>
+        <v>19.90024469238386</v>
       </c>
       <c r="L6">
-        <v>5.229655455718893</v>
+        <v>9.194330241195484</v>
       </c>
       <c r="M6">
-        <v>14.9371312550518</v>
+        <v>21.34350454921993</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.700237235963334</v>
+        <v>12.911778248579</v>
       </c>
       <c r="D7">
-        <v>3.503650919570366</v>
+        <v>6.198428819812851</v>
       </c>
       <c r="E7">
-        <v>7.640131794036405</v>
+        <v>13.19860643504916</v>
       </c>
       <c r="F7">
-        <v>33.16900731922043</v>
+        <v>49.50846751429773</v>
       </c>
       <c r="G7">
-        <v>43.9879503113203</v>
+        <v>62.27355298783291</v>
       </c>
       <c r="H7">
-        <v>14.28938714837556</v>
+        <v>22.75989716458053</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.495295889313141</v>
+        <v>11.2502669469549</v>
       </c>
       <c r="K7">
-        <v>18.25920338613071</v>
+        <v>19.98219346263943</v>
       </c>
       <c r="L7">
-        <v>5.22114784527748</v>
+        <v>9.190568515670135</v>
       </c>
       <c r="M7">
-        <v>15.1547629993458</v>
+        <v>21.36943744745719</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.0328589452667</v>
+        <v>12.92259990829525</v>
       </c>
       <c r="D8">
-        <v>3.647589709420627</v>
+        <v>6.214743251972175</v>
       </c>
       <c r="E8">
-        <v>7.659428953304174</v>
+        <v>13.16758309595676</v>
       </c>
       <c r="F8">
-        <v>33.59762935559301</v>
+        <v>49.34134673926478</v>
       </c>
       <c r="G8">
-        <v>44.77488641489551</v>
+        <v>62.07112094095165</v>
       </c>
       <c r="H8">
-        <v>14.25501254492296</v>
+        <v>22.65915945713436</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.410280024309549</v>
+        <v>11.21200497219155</v>
       </c>
       <c r="K8">
-        <v>19.87658821574404</v>
+        <v>20.34810757045811</v>
       </c>
       <c r="L8">
-        <v>5.185063721306146</v>
+        <v>9.17489388090352</v>
       </c>
       <c r="M8">
-        <v>16.09562858793322</v>
+        <v>21.49121058198522</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.701423810523909</v>
+        <v>12.96358148153196</v>
       </c>
       <c r="D9">
-        <v>3.920676708036631</v>
+        <v>6.249360808860578</v>
       </c>
       <c r="E9">
-        <v>7.723778769272641</v>
+        <v>13.11860416741369</v>
       </c>
       <c r="F9">
-        <v>34.72272177816819</v>
+        <v>49.1093031329804</v>
       </c>
       <c r="G9">
-        <v>46.75557690525856</v>
+        <v>61.8174704363006</v>
       </c>
       <c r="H9">
-        <v>14.29685454495828</v>
+        <v>22.4969707875404</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.259695097021043</v>
+        <v>11.1455300086008</v>
       </c>
       <c r="K9">
-        <v>22.84867471652437</v>
+        <v>21.07558873050194</v>
       </c>
       <c r="L9">
-        <v>5.119310070743284</v>
+        <v>9.14745785995593</v>
       </c>
       <c r="M9">
-        <v>17.85786102669974</v>
+        <v>21.7552475381377</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.19972041915644</v>
+        <v>13.00560831215182</v>
       </c>
       <c r="D10">
-        <v>4.114643783127594</v>
+        <v>6.276308805014999</v>
       </c>
       <c r="E10">
-        <v>7.788425394853276</v>
+        <v>13.08982687152624</v>
       </c>
       <c r="F10">
-        <v>35.73996459140303</v>
+        <v>48.99777841218268</v>
       </c>
       <c r="G10">
-        <v>48.50059755364131</v>
+        <v>61.71970138779156</v>
       </c>
       <c r="H10">
-        <v>14.40461570204909</v>
+        <v>22.3995215568472</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.159177711443157</v>
+        <v>11.10187115370012</v>
       </c>
       <c r="K10">
-        <v>24.99948280526855</v>
+        <v>21.61124045422961</v>
       </c>
       <c r="L10">
-        <v>5.073813848503806</v>
+        <v>9.129292104379189</v>
       </c>
       <c r="M10">
-        <v>19.09409922319038</v>
+        <v>21.96353848714879</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.42753077047247</v>
+        <v>13.02727988555498</v>
       </c>
       <c r="D11">
-        <v>4.20128724164752</v>
+        <v>6.288878128062485</v>
       </c>
       <c r="E11">
-        <v>7.821884949672294</v>
+        <v>13.07829565072881</v>
       </c>
       <c r="F11">
-        <v>36.24769893790069</v>
+        <v>48.95996442322909</v>
       </c>
       <c r="G11">
-        <v>49.36201668332352</v>
+        <v>61.69468372492757</v>
       </c>
       <c r="H11">
-        <v>14.47273105268568</v>
+        <v>22.35993639099033</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.115729750598991</v>
+        <v>11.08312687788747</v>
       </c>
       <c r="K11">
-        <v>25.93272327533923</v>
+        <v>21.85416727019204</v>
       </c>
       <c r="L11">
-        <v>5.053669501923705</v>
+        <v>9.121455911754744</v>
       </c>
       <c r="M11">
-        <v>19.64280091672295</v>
+        <v>22.06115369238966</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.51393819375797</v>
+        <v>13.03584984841527</v>
       </c>
       <c r="D12">
-        <v>4.233860567805588</v>
+        <v>6.293680779955782</v>
       </c>
       <c r="E12">
-        <v>7.835162325321054</v>
+        <v>13.07415294935575</v>
       </c>
       <c r="F12">
-        <v>36.44672802159926</v>
+        <v>48.94751140805138</v>
       </c>
       <c r="G12">
-        <v>49.69831292691024</v>
+        <v>61.6880233898639</v>
       </c>
       <c r="H12">
-        <v>14.50147516255305</v>
+        <v>22.34563149659371</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.099613604363235</v>
+        <v>11.07618887612698</v>
       </c>
       <c r="K12">
-        <v>26.27980087410912</v>
+        <v>21.94596877670428</v>
       </c>
       <c r="L12">
-        <v>5.046115548248128</v>
+        <v>9.118549674370144</v>
       </c>
       <c r="M12">
-        <v>19.84857284485008</v>
+        <v>22.09850766707523</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.49532278188814</v>
+        <v>13.03398805485141</v>
       </c>
       <c r="D13">
-        <v>4.226855921290991</v>
+        <v>6.29264456188938</v>
       </c>
       <c r="E13">
-        <v>7.832275403076</v>
+        <v>13.07503520120316</v>
       </c>
       <c r="F13">
-        <v>36.40355807003141</v>
+        <v>48.95011025553925</v>
       </c>
       <c r="G13">
-        <v>49.62543034828267</v>
+        <v>61.68933246796662</v>
       </c>
       <c r="H13">
-        <v>14.49515003705143</v>
+        <v>22.34868179490929</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.103069369137396</v>
+        <v>11.07767598832539</v>
       </c>
       <c r="K13">
-        <v>26.20532964272141</v>
+        <v>21.92620739976239</v>
       </c>
       <c r="L13">
-        <v>5.047739210343864</v>
+        <v>9.119172869539334</v>
       </c>
       <c r="M13">
-        <v>19.80434592347394</v>
+        <v>22.09044587300383</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.43463682822443</v>
+        <v>13.02797768121439</v>
       </c>
       <c r="D14">
-        <v>4.203971840580645</v>
+        <v>6.289272394935673</v>
       </c>
       <c r="E14">
-        <v>7.822964977031329</v>
+        <v>13.07795034260901</v>
       </c>
       <c r="F14">
-        <v>36.26393596440327</v>
+        <v>48.95890245640565</v>
       </c>
       <c r="G14">
-        <v>49.38947943851829</v>
+        <v>61.69407931200413</v>
       </c>
       <c r="H14">
-        <v>14.47503551639954</v>
+        <v>22.35874577131867</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.114397060413095</v>
+        <v>11.08255287942681</v>
       </c>
       <c r="K14">
-        <v>25.96140316734153</v>
+        <v>21.86172409921721</v>
       </c>
       <c r="L14">
-        <v>5.053046575983817</v>
+        <v>9.121215589943683</v>
       </c>
       <c r="M14">
-        <v>19.6597703126068</v>
+        <v>22.06421915642069</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.39748278215766</v>
+        <v>13.02434336215011</v>
       </c>
       <c r="D15">
-        <v>4.189923705106648</v>
+        <v>6.287212383073129</v>
       </c>
       <c r="E15">
-        <v>7.817341870097275</v>
+        <v>13.07976510104267</v>
       </c>
       <c r="F15">
-        <v>36.17930274492283</v>
+        <v>48.96453122255932</v>
       </c>
       <c r="G15">
-        <v>49.24627884159089</v>
+        <v>61.69735368560326</v>
       </c>
       <c r="H15">
-        <v>14.46310522876571</v>
+        <v>22.36499955703678</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.121379739140826</v>
+        <v>11.08556094493268</v>
       </c>
       <c r="K15">
-        <v>25.81117353346652</v>
+        <v>21.82219911612492</v>
       </c>
       <c r="L15">
-        <v>5.056307003693391</v>
+        <v>9.122474770518249</v>
       </c>
       <c r="M15">
-        <v>19.57095110265839</v>
+        <v>22.04820454704567</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.1848530928565</v>
+        <v>13.00424309118377</v>
       </c>
       <c r="D16">
-        <v>4.108948628674739</v>
+        <v>6.275493471597443</v>
       </c>
       <c r="E16">
-        <v>7.786322305660683</v>
+        <v>13.09061181868076</v>
       </c>
       <c r="F16">
-        <v>35.7077129446636</v>
+        <v>49.00051036375465</v>
       </c>
       <c r="G16">
-        <v>48.44569376302743</v>
+        <v>61.7217292476107</v>
       </c>
       <c r="H16">
-        <v>14.4005657217422</v>
+        <v>22.40220426444969</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.16206371513509</v>
+        <v>11.10311855877096</v>
       </c>
       <c r="K16">
-        <v>24.93759901494961</v>
+        <v>21.59534252327812</v>
       </c>
       <c r="L16">
-        <v>5.075141011132875</v>
+        <v>9.129812793392263</v>
       </c>
       <c r="M16">
-        <v>19.0579607642721</v>
+        <v>21.9572148035905</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.05468219495044</v>
+        <v>12.9925636481341</v>
       </c>
       <c r="D17">
-        <v>4.058858298446266</v>
+        <v>6.268382612641282</v>
       </c>
       <c r="E17">
-        <v>7.768347315306183</v>
+        <v>13.09766515559965</v>
       </c>
       <c r="F17">
-        <v>35.4301349408774</v>
+        <v>49.02589767752328</v>
       </c>
       <c r="G17">
-        <v>47.9721371990867</v>
+        <v>61.74167803347964</v>
       </c>
       <c r="H17">
-        <v>14.3672331535688</v>
+        <v>22.42624547769027</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.187611404361193</v>
+        <v>11.11417516638029</v>
       </c>
       <c r="K17">
-        <v>24.39023972871028</v>
+        <v>21.45592321977158</v>
       </c>
       <c r="L17">
-        <v>5.086832966948499</v>
+        <v>9.134423700814475</v>
       </c>
       <c r="M17">
-        <v>18.73971578867739</v>
+        <v>21.90211296306819</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.979918585283603</v>
+        <v>12.98608652526471</v>
       </c>
       <c r="D18">
-        <v>4.029897908637944</v>
+        <v>6.264321970212659</v>
       </c>
       <c r="E18">
-        <v>7.758388373695077</v>
+        <v>13.10186887902184</v>
       </c>
       <c r="F18">
-        <v>35.27469589908379</v>
+        <v>49.04171534476104</v>
       </c>
       <c r="G18">
-        <v>47.70610012339531</v>
+        <v>61.75498273741326</v>
       </c>
       <c r="H18">
-        <v>14.34984566040482</v>
+        <v>22.44051980176273</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.202519530287024</v>
+        <v>11.1206397397389</v>
       </c>
       <c r="K18">
-        <v>24.07114991151826</v>
+        <v>21.37566770162899</v>
       </c>
       <c r="L18">
-        <v>5.093610169369766</v>
+        <v>9.137116029924515</v>
       </c>
       <c r="M18">
-        <v>18.55538372636577</v>
+        <v>21.87069066668683</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.954624204148125</v>
+        <v>12.98393491155243</v>
       </c>
       <c r="D19">
-        <v>4.020066996043497</v>
+        <v>6.262952197219635</v>
       </c>
       <c r="E19">
-        <v>7.755080961927964</v>
+        <v>13.10331741663594</v>
       </c>
       <c r="F19">
-        <v>35.2227823372744</v>
+        <v>49.04727943267544</v>
       </c>
       <c r="G19">
-        <v>47.61710227801291</v>
+        <v>61.75980140520403</v>
       </c>
       <c r="H19">
-        <v>14.34425895135596</v>
+        <v>22.44542943449356</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.207603630228988</v>
+        <v>11.12284659990213</v>
       </c>
       <c r="K19">
-        <v>23.96237426023225</v>
+        <v>21.34848592073057</v>
       </c>
       <c r="L19">
-        <v>5.095913944960492</v>
+        <v>9.138034530140908</v>
       </c>
       <c r="M19">
-        <v>18.4927530311902</v>
+        <v>21.86009880486158</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.06852820895033</v>
+        <v>12.99378207130922</v>
       </c>
       <c r="D20">
-        <v>4.064206066957802</v>
+        <v>6.269136552043429</v>
       </c>
       <c r="E20">
-        <v>7.770221304927951</v>
+        <v>13.0968991220379</v>
       </c>
       <c r="F20">
-        <v>35.45924511744646</v>
+        <v>49.02306928480083</v>
       </c>
       <c r="G20">
-        <v>48.02188925989367</v>
+        <v>61.73936486507179</v>
       </c>
       <c r="H20">
-        <v>14.37059531684019</v>
+        <v>22.42364002273125</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.184869624119024</v>
+        <v>11.11298729719241</v>
       </c>
       <c r="K20">
-        <v>24.44894706347342</v>
+        <v>21.47077199996385</v>
       </c>
       <c r="L20">
-        <v>5.08558296127556</v>
+        <v>9.133928697688553</v>
       </c>
       <c r="M20">
-        <v>18.77372701783088</v>
+        <v>21.90795077933846</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.45245806595578</v>
+        <v>13.02973324271907</v>
       </c>
       <c r="D21">
-        <v>4.210699912656158</v>
+        <v>6.290261731182436</v>
       </c>
       <c r="E21">
-        <v>7.825682999059412</v>
+        <v>13.07708802072125</v>
       </c>
       <c r="F21">
-        <v>36.30476048286248</v>
+        <v>48.95626925857499</v>
       </c>
       <c r="G21">
-        <v>49.45850687583548</v>
+        <v>61.69260858479817</v>
       </c>
       <c r="H21">
-        <v>14.48086189438458</v>
+        <v>22.35577112048312</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.111060625366054</v>
+        <v>11.08111607842012</v>
       </c>
       <c r="K21">
-        <v>26.03322034324515</v>
+        <v>21.88067019887665</v>
       </c>
       <c r="L21">
-        <v>5.0514857013172</v>
+        <v>9.120613936117753</v>
       </c>
       <c r="M21">
-        <v>19.70229040873869</v>
+        <v>22.0719121972194</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.70419638816605</v>
+        <v>13.05534562083867</v>
       </c>
       <c r="D22">
-        <v>4.30506209361118</v>
+        <v>6.304317615251914</v>
       </c>
       <c r="E22">
-        <v>7.865480931897221</v>
+        <v>13.06544532754788</v>
       </c>
       <c r="F22">
-        <v>36.89690793912598</v>
+        <v>48.92349327545059</v>
       </c>
       <c r="G22">
-        <v>50.45645419771893</v>
+        <v>61.67845440679087</v>
       </c>
       <c r="H22">
-        <v>14.57022556831987</v>
+        <v>22.3154097142113</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.06478993579552</v>
+        <v>11.06121906258328</v>
       </c>
       <c r="K22">
-        <v>27.03188766512909</v>
+        <v>22.14742082644009</v>
       </c>
       <c r="L22">
-        <v>5.029631383248572</v>
+        <v>9.112268304617906</v>
       </c>
       <c r="M22">
-        <v>20.29744863543643</v>
+        <v>22.18132831427339</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.5697682302457</v>
+        <v>13.04148352022613</v>
       </c>
       <c r="D23">
-        <v>4.254826905275543</v>
+        <v>6.296793489261329</v>
       </c>
       <c r="E23">
-        <v>7.843906630865552</v>
+        <v>13.07153996807157</v>
       </c>
       <c r="F23">
-        <v>36.57714861334417</v>
+        <v>48.93998815879749</v>
       </c>
       <c r="G23">
-        <v>49.91829998050788</v>
+        <v>61.6845032988712</v>
       </c>
       <c r="H23">
-        <v>14.5208777806673</v>
+        <v>22.33658490770363</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.089301966406667</v>
+        <v>11.07175329243706</v>
       </c>
       <c r="K23">
-        <v>26.50218040537031</v>
+        <v>22.00518204077948</v>
       </c>
       <c r="L23">
-        <v>5.041257890803555</v>
+        <v>9.116690024172676</v>
       </c>
       <c r="M23">
-        <v>19.98087967863755</v>
+        <v>22.12273183303574</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.06226819562545</v>
+        <v>12.9932304820082</v>
       </c>
       <c r="D24">
-        <v>4.06178884724437</v>
+        <v>6.268795610309348</v>
       </c>
       <c r="E24">
-        <v>7.769372907625716</v>
+        <v>13.09724498271351</v>
       </c>
       <c r="F24">
-        <v>35.44607152013551</v>
+        <v>49.02434419485989</v>
       </c>
       <c r="G24">
-        <v>47.99937701695931</v>
+        <v>61.74040493107358</v>
       </c>
       <c r="H24">
-        <v>14.36906976684616</v>
+        <v>22.4248165389525</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.186108497077127</v>
+        <v>11.11352399646027</v>
       </c>
       <c r="K24">
-        <v>24.42241921318933</v>
+        <v>21.46405917626998</v>
       </c>
       <c r="L24">
-        <v>5.086147916082957</v>
+        <v>9.134152359445267</v>
       </c>
       <c r="M24">
-        <v>18.75835480089734</v>
+        <v>21.90531070197854</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.519136493193308</v>
+        <v>12.95039114117475</v>
       </c>
       <c r="D25">
-        <v>3.847907030780117</v>
+        <v>6.239723535204218</v>
       </c>
       <c r="E25">
-        <v>7.70341053245251</v>
+        <v>13.13058695523635</v>
       </c>
       <c r="F25">
-        <v>34.38608559876109</v>
+        <v>49.16176601816591</v>
       </c>
       <c r="G25">
-        <v>46.17044109850054</v>
+        <v>61.87061380086951</v>
       </c>
       <c r="H25">
-        <v>14.27278645047615</v>
+        <v>22.53704559334897</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.298679702684966</v>
+        <v>11.16260095476497</v>
       </c>
       <c r="K25">
-        <v>22.02623986617158</v>
+        <v>20.87823123443275</v>
       </c>
       <c r="L25">
-        <v>5.136585827258613</v>
+        <v>9.154528764194408</v>
       </c>
       <c r="M25">
-        <v>17.39095130410414</v>
+        <v>21.6812249600051</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.92687315769199</v>
+        <v>9.124207095816855</v>
       </c>
       <c r="D2">
-        <v>6.219344393504453</v>
+        <v>3.686017207862893</v>
       </c>
       <c r="E2">
-        <v>13.15998055045497</v>
+        <v>7.666408052126811</v>
       </c>
       <c r="F2">
-        <v>49.3025153564332</v>
+        <v>33.73236290189001</v>
       </c>
       <c r="G2">
-        <v>62.0259216775334</v>
+        <v>45.01680116021836</v>
       </c>
       <c r="H2">
-        <v>22.63425151667966</v>
+        <v>14.25271870316767</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.20221831876756</v>
+        <v>6.388328130167563</v>
       </c>
       <c r="K2">
-        <v>20.44810689891228</v>
+        <v>20.29713684394786</v>
       </c>
       <c r="L2">
-        <v>9.170871096079406</v>
+        <v>5.17563390451646</v>
       </c>
       <c r="M2">
-        <v>21.5259513024024</v>
+        <v>16.34532895516896</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.91598200217053</v>
+        <v>8.860596504385741</v>
       </c>
       <c r="D3">
-        <v>6.206201455712169</v>
+        <v>3.573904708164504</v>
       </c>
       <c r="E3">
-        <v>13.18292983078363</v>
+        <v>7.64814628821452</v>
       </c>
       <c r="F3">
-        <v>49.42237644100456</v>
+        <v>33.36272541284589</v>
       </c>
       <c r="G3">
-        <v>62.16784841183699</v>
+        <v>44.34774754107254</v>
       </c>
       <c r="H3">
-        <v>22.70916845062349</v>
+        <v>14.26738445079676</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.23125199178867</v>
+        <v>6.453210693501778</v>
       </c>
       <c r="K3">
-        <v>20.15897159095709</v>
+        <v>19.05750901835082</v>
       </c>
       <c r="L3">
-        <v>9.182789173972527</v>
+        <v>5.20336861099645</v>
       </c>
       <c r="M3">
-        <v>21.42713859593472</v>
+        <v>15.61510276310903</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.91179531136909</v>
+        <v>8.701107625003068</v>
       </c>
       <c r="D4">
-        <v>6.198470491780769</v>
+        <v>3.504037126472881</v>
       </c>
       <c r="E4">
-        <v>13.19851721582488</v>
+        <v>7.640168112895357</v>
       </c>
       <c r="F4">
-        <v>49.50796873855926</v>
+        <v>33.1699878285814</v>
       </c>
       <c r="G4">
-        <v>62.27293307335501</v>
+        <v>43.98979569485615</v>
       </c>
       <c r="H4">
-        <v>22.75960943153644</v>
+        <v>14.28923783651867</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.25016045828546</v>
+        <v>6.495061137000099</v>
       </c>
       <c r="K4">
-        <v>19.9831549704892</v>
+        <v>18.26364268315855</v>
       </c>
       <c r="L4">
-        <v>9.190525006187491</v>
+        <v>5.221049104193005</v>
       </c>
       <c r="M4">
-        <v>21.36974495790199</v>
+        <v>15.15729962084283</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.91071947203517</v>
+        <v>8.636773143595699</v>
       </c>
       <c r="D5">
-        <v>6.195406709469755</v>
+        <v>3.475333347330491</v>
       </c>
       <c r="E5">
-        <v>13.20524585126817</v>
+        <v>7.637712037325957</v>
       </c>
       <c r="F5">
-        <v>49.54585357889801</v>
+        <v>33.09974490872906</v>
       </c>
       <c r="G5">
-        <v>62.32024432317533</v>
+        <v>43.85677381561279</v>
       </c>
       <c r="H5">
-        <v>22.78127884525524</v>
+        <v>14.30121675382511</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.25813837983579</v>
+        <v>6.512618558160185</v>
       </c>
       <c r="K5">
-        <v>19.91202266055362</v>
+        <v>17.93207127658215</v>
       </c>
       <c r="L5">
-        <v>9.193782891605318</v>
+        <v>5.228421147048977</v>
       </c>
       <c r="M5">
-        <v>21.34719732465772</v>
+        <v>14.96858923786594</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.91057893284833</v>
+        <v>8.626132121161811</v>
       </c>
       <c r="D6">
-        <v>6.194903245520501</v>
+        <v>3.470553929099798</v>
       </c>
       <c r="E6">
-        <v>13.20638589505507</v>
+        <v>7.637351700072262</v>
       </c>
       <c r="F6">
-        <v>49.55232549116852</v>
+        <v>33.08857316079289</v>
       </c>
       <c r="G6">
-        <v>62.32837070574784</v>
+        <v>43.83544789813734</v>
       </c>
       <c r="H6">
-        <v>22.78494425967722</v>
+        <v>14.303386965801</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.25947958694979</v>
+        <v>6.515564259286247</v>
       </c>
       <c r="K6">
-        <v>19.90024469238386</v>
+        <v>17.8765330210055</v>
       </c>
       <c r="L6">
-        <v>9.194330241195484</v>
+        <v>5.229655455718927</v>
       </c>
       <c r="M6">
-        <v>21.34350454921993</v>
+        <v>14.93713125505179</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.911778248579</v>
+        <v>8.700237235963336</v>
       </c>
       <c r="D7">
-        <v>6.198428819812851</v>
+        <v>3.503650919570321</v>
       </c>
       <c r="E7">
-        <v>13.19860643504916</v>
+        <v>7.640131794036405</v>
       </c>
       <c r="F7">
-        <v>49.50846751429773</v>
+        <v>33.16900731922019</v>
       </c>
       <c r="G7">
-        <v>62.27355298783291</v>
+        <v>43.98795031132002</v>
       </c>
       <c r="H7">
-        <v>22.75989716458053</v>
+        <v>14.28938714837541</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.2502669469549</v>
+        <v>6.495295889313208</v>
       </c>
       <c r="K7">
-        <v>19.98219346263943</v>
+        <v>18.25920338613068</v>
       </c>
       <c r="L7">
-        <v>9.190568515670135</v>
+        <v>5.221147845277478</v>
       </c>
       <c r="M7">
-        <v>21.36943744745719</v>
+        <v>15.15476299934574</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.92259990829525</v>
+        <v>9.032858945266652</v>
       </c>
       <c r="D8">
-        <v>6.214743251972175</v>
+        <v>3.647589709420585</v>
       </c>
       <c r="E8">
-        <v>13.16758309595676</v>
+        <v>7.659428953304123</v>
       </c>
       <c r="F8">
-        <v>49.34134673926478</v>
+        <v>33.59762935559278</v>
       </c>
       <c r="G8">
-        <v>62.07112094095165</v>
+        <v>44.77488641489538</v>
       </c>
       <c r="H8">
-        <v>22.65915945713436</v>
+        <v>14.25501254492278</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.21200497219155</v>
+        <v>6.410280024309521</v>
       </c>
       <c r="K8">
-        <v>20.34810757045811</v>
+        <v>19.87658821574402</v>
       </c>
       <c r="L8">
-        <v>9.17489388090352</v>
+        <v>5.185063721306081</v>
       </c>
       <c r="M8">
-        <v>21.49121058198522</v>
+        <v>16.09562858793317</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.96358148153196</v>
+        <v>9.701423810524034</v>
       </c>
       <c r="D9">
-        <v>6.249360808860578</v>
+        <v>3.920676708036662</v>
       </c>
       <c r="E9">
-        <v>13.11860416741369</v>
+        <v>7.723778769272749</v>
       </c>
       <c r="F9">
-        <v>49.1093031329804</v>
+        <v>34.72272177816843</v>
       </c>
       <c r="G9">
-        <v>61.8174704363006</v>
+        <v>46.75557690525889</v>
       </c>
       <c r="H9">
-        <v>22.4969707875404</v>
+        <v>14.29685454495835</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.1455300086008</v>
+        <v>6.259695097021047</v>
       </c>
       <c r="K9">
-        <v>21.07558873050194</v>
+        <v>22.84867471652433</v>
       </c>
       <c r="L9">
-        <v>9.14745785995593</v>
+        <v>5.119310070743284</v>
       </c>
       <c r="M9">
-        <v>21.7552475381377</v>
+        <v>17.85786102669978</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.00560831215182</v>
+        <v>10.1997204191564</v>
       </c>
       <c r="D10">
-        <v>6.276308805014999</v>
+        <v>4.11464378312751</v>
       </c>
       <c r="E10">
-        <v>13.08982687152624</v>
+        <v>7.788425394853146</v>
       </c>
       <c r="F10">
-        <v>48.99777841218268</v>
+        <v>35.73996459140281</v>
       </c>
       <c r="G10">
-        <v>61.71970138779156</v>
+        <v>48.50059755364118</v>
       </c>
       <c r="H10">
-        <v>22.3995215568472</v>
+        <v>14.40461570204894</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.10187115370012</v>
+        <v>6.15917771144308</v>
       </c>
       <c r="K10">
-        <v>21.61124045422961</v>
+        <v>24.99948280526861</v>
       </c>
       <c r="L10">
-        <v>9.129292104379189</v>
+        <v>5.073813848503611</v>
       </c>
       <c r="M10">
-        <v>21.96353848714879</v>
+        <v>19.09409922319034</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.02727988555498</v>
+        <v>10.42753077047247</v>
       </c>
       <c r="D11">
-        <v>6.288878128062485</v>
+        <v>4.201287241647433</v>
       </c>
       <c r="E11">
-        <v>13.07829565072881</v>
+        <v>7.821884949672257</v>
       </c>
       <c r="F11">
-        <v>48.95996442322909</v>
+        <v>36.24769893790062</v>
       </c>
       <c r="G11">
-        <v>61.69468372492757</v>
+        <v>49.36201668332357</v>
       </c>
       <c r="H11">
-        <v>22.35993639099033</v>
+        <v>14.47273105268565</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.08312687788747</v>
+        <v>6.115729750598968</v>
       </c>
       <c r="K11">
-        <v>21.85416727019204</v>
+        <v>25.93272327533928</v>
       </c>
       <c r="L11">
-        <v>9.121455911754744</v>
+        <v>5.053669501923645</v>
       </c>
       <c r="M11">
-        <v>22.06115369238966</v>
+        <v>19.64280091672294</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.03584984841527</v>
+        <v>10.51393819375797</v>
       </c>
       <c r="D12">
-        <v>6.293680779955782</v>
+        <v>4.233860567805588</v>
       </c>
       <c r="E12">
-        <v>13.07415294935575</v>
+        <v>7.83516232532111</v>
       </c>
       <c r="F12">
-        <v>48.94751140805138</v>
+        <v>36.44672802159933</v>
       </c>
       <c r="G12">
-        <v>61.6880233898639</v>
+        <v>49.69831292691039</v>
       </c>
       <c r="H12">
-        <v>22.34563149659371</v>
+        <v>14.50147516255309</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.07618887612698</v>
+        <v>6.099613604363211</v>
       </c>
       <c r="K12">
-        <v>21.94596877670428</v>
+        <v>26.27980087410907</v>
       </c>
       <c r="L12">
-        <v>9.118549674370144</v>
+        <v>5.046115548248064</v>
       </c>
       <c r="M12">
-        <v>22.09850766707523</v>
+        <v>19.8485728448501</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.03398805485141</v>
+        <v>10.49532278188818</v>
       </c>
       <c r="D13">
-        <v>6.29264456188938</v>
+        <v>4.226855921291071</v>
       </c>
       <c r="E13">
-        <v>13.07503520120316</v>
+        <v>7.832275403076045</v>
       </c>
       <c r="F13">
-        <v>48.95011025553925</v>
+        <v>36.40355807003152</v>
       </c>
       <c r="G13">
-        <v>61.68933246796662</v>
+        <v>49.6254303482828</v>
       </c>
       <c r="H13">
-        <v>22.34868179490929</v>
+        <v>14.49515003705144</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.07767598832539</v>
+        <v>6.103069369137423</v>
       </c>
       <c r="K13">
-        <v>21.92620739976239</v>
+        <v>26.20532964272139</v>
       </c>
       <c r="L13">
-        <v>9.119172869539334</v>
+        <v>5.047739210343861</v>
       </c>
       <c r="M13">
-        <v>22.09044587300383</v>
+        <v>19.80434592347394</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.02797768121439</v>
+        <v>10.43463682822443</v>
       </c>
       <c r="D14">
-        <v>6.289272394935673</v>
+        <v>4.203971840580686</v>
       </c>
       <c r="E14">
-        <v>13.07795034260901</v>
+        <v>7.822964977031329</v>
       </c>
       <c r="F14">
-        <v>48.95890245640565</v>
+        <v>36.26393596440332</v>
       </c>
       <c r="G14">
-        <v>61.69407931200413</v>
+        <v>49.3894794385183</v>
       </c>
       <c r="H14">
-        <v>22.35874577131867</v>
+        <v>14.47503551639954</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.08255287942681</v>
+        <v>6.114397060413036</v>
       </c>
       <c r="K14">
-        <v>21.86172409921721</v>
+        <v>25.96140316734152</v>
       </c>
       <c r="L14">
-        <v>9.121215589943683</v>
+        <v>5.053046575983782</v>
       </c>
       <c r="M14">
-        <v>22.06421915642069</v>
+        <v>19.65977031260679</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.02434336215011</v>
+        <v>10.39748278215757</v>
       </c>
       <c r="D15">
-        <v>6.287212383073129</v>
+        <v>4.189923705106479</v>
       </c>
       <c r="E15">
-        <v>13.07976510104267</v>
+        <v>7.817341870097182</v>
       </c>
       <c r="F15">
-        <v>48.96453122255932</v>
+        <v>36.17930274492281</v>
       </c>
       <c r="G15">
-        <v>61.69735368560326</v>
+        <v>49.24627884159099</v>
       </c>
       <c r="H15">
-        <v>22.36499955703678</v>
+        <v>14.46310522876565</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.08556094493268</v>
+        <v>6.121379739140862</v>
       </c>
       <c r="K15">
-        <v>21.82219911612492</v>
+        <v>25.81117353346651</v>
       </c>
       <c r="L15">
-        <v>9.122474770518249</v>
+        <v>5.056307003693261</v>
       </c>
       <c r="M15">
-        <v>22.04820454704567</v>
+        <v>19.57095110265837</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.00424309118377</v>
+        <v>10.1848530928566</v>
       </c>
       <c r="D16">
-        <v>6.275493471597443</v>
+        <v>4.108948628674891</v>
       </c>
       <c r="E16">
-        <v>13.09061181868076</v>
+        <v>7.78632230566073</v>
       </c>
       <c r="F16">
-        <v>49.00051036375465</v>
+        <v>35.70771294466363</v>
       </c>
       <c r="G16">
-        <v>61.7217292476107</v>
+        <v>48.4456937630274</v>
       </c>
       <c r="H16">
-        <v>22.40220426444969</v>
+        <v>14.40056572174222</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.10311855877096</v>
+        <v>6.162063715135086</v>
       </c>
       <c r="K16">
-        <v>21.59534252327812</v>
+        <v>24.9375990149496</v>
       </c>
       <c r="L16">
-        <v>9.129812793392263</v>
+        <v>5.075141011132807</v>
       </c>
       <c r="M16">
-        <v>21.9572148035905</v>
+        <v>19.0579607642721</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.9925636481341</v>
+        <v>10.05468219495047</v>
       </c>
       <c r="D17">
-        <v>6.268382612641282</v>
+        <v>4.058858298446159</v>
       </c>
       <c r="E17">
-        <v>13.09766515559965</v>
+        <v>7.768347315306142</v>
       </c>
       <c r="F17">
-        <v>49.02589767752328</v>
+        <v>35.43013494087734</v>
       </c>
       <c r="G17">
-        <v>61.74167803347964</v>
+        <v>47.97213719908665</v>
       </c>
       <c r="H17">
-        <v>22.42624547769027</v>
+        <v>14.36723315356878</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.11417516638029</v>
+        <v>6.18761140436125</v>
       </c>
       <c r="K17">
-        <v>21.45592321977158</v>
+        <v>24.39023972871026</v>
       </c>
       <c r="L17">
-        <v>9.134423700814475</v>
+        <v>5.086832966948402</v>
       </c>
       <c r="M17">
-        <v>21.90211296306819</v>
+        <v>18.73971578867737</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.98608652526471</v>
+        <v>9.97991858528364</v>
       </c>
       <c r="D18">
-        <v>6.264321970212659</v>
+        <v>4.029897908637985</v>
       </c>
       <c r="E18">
-        <v>13.10186887902184</v>
+        <v>7.75838837369508</v>
       </c>
       <c r="F18">
-        <v>49.04171534476104</v>
+        <v>35.27469589908375</v>
       </c>
       <c r="G18">
-        <v>61.75498273741326</v>
+        <v>47.7061001233952</v>
       </c>
       <c r="H18">
-        <v>22.44051980176273</v>
+        <v>14.34984566040482</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.1206397397389</v>
+        <v>6.202519530287028</v>
       </c>
       <c r="K18">
-        <v>21.37566770162899</v>
+        <v>24.07114991151829</v>
       </c>
       <c r="L18">
-        <v>9.137116029924515</v>
+        <v>5.093610169369798</v>
       </c>
       <c r="M18">
-        <v>21.87069066668683</v>
+        <v>18.55538372636575</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.98393491155243</v>
+        <v>9.954624204148129</v>
       </c>
       <c r="D19">
-        <v>6.262952197219635</v>
+        <v>4.020066996043456</v>
       </c>
       <c r="E19">
-        <v>13.10331741663594</v>
+        <v>7.755080961928078</v>
       </c>
       <c r="F19">
-        <v>49.04727943267544</v>
+        <v>35.22278233727433</v>
       </c>
       <c r="G19">
-        <v>61.75980140520403</v>
+        <v>47.61710227801279</v>
       </c>
       <c r="H19">
-        <v>22.44542943449356</v>
+        <v>14.34425895135595</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.12284659990213</v>
+        <v>6.207603630229086</v>
       </c>
       <c r="K19">
-        <v>21.34848592073057</v>
+        <v>23.96237426023228</v>
       </c>
       <c r="L19">
-        <v>9.138034530140908</v>
+        <v>5.095913944960563</v>
       </c>
       <c r="M19">
-        <v>21.86009880486158</v>
+        <v>18.49275303119022</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.99378207130922</v>
+        <v>10.06852820895043</v>
       </c>
       <c r="D20">
-        <v>6.269136552043429</v>
+        <v>4.064206066957794</v>
       </c>
       <c r="E20">
-        <v>13.0968991220379</v>
+        <v>7.770221304927959</v>
       </c>
       <c r="F20">
-        <v>49.02306928480083</v>
+        <v>35.45924511744643</v>
       </c>
       <c r="G20">
-        <v>61.73936486507179</v>
+        <v>48.02188925989361</v>
       </c>
       <c r="H20">
-        <v>22.42364002273125</v>
+        <v>14.37059531684019</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.11298729719241</v>
+        <v>6.184869624119052</v>
       </c>
       <c r="K20">
-        <v>21.47077199996385</v>
+        <v>24.44894706347342</v>
       </c>
       <c r="L20">
-        <v>9.133928697688553</v>
+        <v>5.085582961275498</v>
       </c>
       <c r="M20">
-        <v>21.90795077933846</v>
+        <v>18.77372701783088</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.02973324271907</v>
+        <v>10.45245806595578</v>
       </c>
       <c r="D21">
-        <v>6.290261731182436</v>
+        <v>4.210699912656085</v>
       </c>
       <c r="E21">
-        <v>13.07708802072125</v>
+        <v>7.825682999059327</v>
       </c>
       <c r="F21">
-        <v>48.95626925857499</v>
+        <v>36.30476048286238</v>
       </c>
       <c r="G21">
-        <v>61.69260858479817</v>
+        <v>49.45850687583545</v>
       </c>
       <c r="H21">
-        <v>22.35577112048312</v>
+        <v>14.4808618943845</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.08111607842012</v>
+        <v>6.111060625366031</v>
       </c>
       <c r="K21">
-        <v>21.88067019887665</v>
+        <v>26.03322034324517</v>
       </c>
       <c r="L21">
-        <v>9.120613936117753</v>
+        <v>5.051485701317104</v>
       </c>
       <c r="M21">
-        <v>22.0719121972194</v>
+        <v>19.70229040873868</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.05534562083867</v>
+        <v>10.70419638816607</v>
       </c>
       <c r="D22">
-        <v>6.304317615251914</v>
+        <v>4.305062093611192</v>
       </c>
       <c r="E22">
-        <v>13.06544532754788</v>
+        <v>7.865480931897217</v>
       </c>
       <c r="F22">
-        <v>48.92349327545059</v>
+        <v>36.89690793912613</v>
       </c>
       <c r="G22">
-        <v>61.67845440679087</v>
+        <v>50.45645419771903</v>
       </c>
       <c r="H22">
-        <v>22.3154097142113</v>
+        <v>14.57022556831999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.06121906258328</v>
+        <v>6.064789935795516</v>
       </c>
       <c r="K22">
-        <v>22.14742082644009</v>
+        <v>27.03188766512902</v>
       </c>
       <c r="L22">
-        <v>9.112268304617906</v>
+        <v>5.029631383248539</v>
       </c>
       <c r="M22">
-        <v>22.18132831427339</v>
+        <v>20.29744863543645</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.04148352022613</v>
+        <v>10.56976823024576</v>
       </c>
       <c r="D23">
-        <v>6.296793489261329</v>
+        <v>4.254826905275463</v>
       </c>
       <c r="E23">
-        <v>13.07153996807157</v>
+        <v>7.84390663086556</v>
       </c>
       <c r="F23">
-        <v>48.93998815879749</v>
+        <v>36.57714861334422</v>
       </c>
       <c r="G23">
-        <v>61.6845032988712</v>
+        <v>49.9182999805081</v>
       </c>
       <c r="H23">
-        <v>22.33658490770363</v>
+        <v>14.5208777806673</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.07175329243706</v>
+        <v>6.089301966406697</v>
       </c>
       <c r="K23">
-        <v>22.00518204077948</v>
+        <v>26.50218040537029</v>
       </c>
       <c r="L23">
-        <v>9.116690024172676</v>
+        <v>5.041257890803484</v>
       </c>
       <c r="M23">
-        <v>22.12273183303574</v>
+        <v>19.98087967863757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.9932304820082</v>
+        <v>10.06226819562533</v>
       </c>
       <c r="D24">
-        <v>6.268795610309348</v>
+        <v>4.06178884724434</v>
       </c>
       <c r="E24">
-        <v>13.09724498271351</v>
+        <v>7.769372907625718</v>
       </c>
       <c r="F24">
-        <v>49.02434419485989</v>
+        <v>35.44607152013532</v>
       </c>
       <c r="G24">
-        <v>61.74040493107358</v>
+        <v>47.9993770169591</v>
       </c>
       <c r="H24">
-        <v>22.4248165389525</v>
+        <v>14.36906976684607</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.11352399646027</v>
+        <v>6.186108497077155</v>
       </c>
       <c r="K24">
-        <v>21.46405917626998</v>
+        <v>24.42241921318941</v>
       </c>
       <c r="L24">
-        <v>9.134152359445267</v>
+        <v>5.08614791608299</v>
       </c>
       <c r="M24">
-        <v>21.90531070197854</v>
+        <v>18.7583548008973</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.95039114117475</v>
+        <v>9.519136493193184</v>
       </c>
       <c r="D25">
-        <v>6.239723535204218</v>
+        <v>3.847907030779925</v>
       </c>
       <c r="E25">
-        <v>13.13058695523635</v>
+        <v>7.703410532452453</v>
       </c>
       <c r="F25">
-        <v>49.16176601816591</v>
+        <v>34.38608559876111</v>
       </c>
       <c r="G25">
-        <v>61.87061380086951</v>
+        <v>46.17044109850072</v>
       </c>
       <c r="H25">
-        <v>22.53704559334897</v>
+        <v>14.27278645047627</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.16260095476497</v>
+        <v>6.298679702684989</v>
       </c>
       <c r="K25">
-        <v>20.87823123443275</v>
+        <v>22.02623986617157</v>
       </c>
       <c r="L25">
-        <v>9.154528764194408</v>
+        <v>5.136585827258576</v>
       </c>
       <c r="M25">
-        <v>21.6812249600051</v>
+        <v>17.39095130410414</v>
       </c>
       <c r="N25">
         <v>0</v>
